--- a/data/demand.xlsx
+++ b/data/demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scalian-my.sharepoint.com/personal/yannick_martz_scalian_com/Documents/0_FILES_YM/1_LAB/11_SUPPLY/Test code/DIAG_DURABILITE_ROOT_v3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scalian-my.sharepoint.com/personal/yannick_martz_scalian_com/Documents/0_FILES_YM/1_LAB/11_SUPPLY/Test code/SimChainGreenHorizonsGit/simchaingreenhorizons/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_DD62FEF19407B06F9119148310ABC52E3FB092F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCE5C3D-609E-461B-8D14-90D99CA2D3DE}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_DD62FEF19407B06F9119148310ABC52E3FB092F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5D29BB-64D6-4112-8BE5-523E4C8CABC5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,7 +435,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +458,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>320</v>
+        <f>320*0.55</f>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +467,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>180</v>
+        <f>180*0.55</f>
+        <v>99.000000000000014</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +476,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>290</v>
+        <f>290*0.55</f>
+        <v>159.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +485,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>340</v>
+        <f>340*0.55</f>
+        <v>187.00000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +494,8 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>560</v>
+        <f>560*0.55</f>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
